--- a/Rlinux_processed.xlsx
+++ b/Rlinux_processed.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bridgetlow/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsong\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB95FC61-44C3-FA49-8BF2-1173272B22C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB53753-2514-4417-BB07-451D250734B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="760" windowWidth="28040" windowHeight="16940" xr2:uid="{D75B0300-F10E-7442-8747-B467C85CA5A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B6F56A2E-6620-4C33-9DBA-8D13A7EE5C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>tidyverse</t>
+  </si>
+  <si>
+    <t>openxlsx==4.2.4</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -48,25 +54,25 @@
   </si>
   <si>
     <t>User</t>
-  </si>
-  <si>
-    <t>parquetize</t>
-  </si>
-  <si>
-    <t>duckdb==1.2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,37 +431,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7715D5A9-E127-564E-9418-CC39EC288BA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B4B2-780B-40CA-93E0-4FD7E2FB16EC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
